--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -874,12 +874,6 @@
     <t>testfirm3</t>
   </si>
   <si>
-    <t>testfirm4</t>
-  </si>
-  <si>
-    <t>testfirm5</t>
-  </si>
-  <si>
     <t>testfirm8</t>
   </si>
   <si>
@@ -895,12 +889,6 @@
     <t>testfirm12</t>
   </si>
   <si>
-    <t>testfirm13</t>
-  </si>
-  <si>
-    <t>testfirm14</t>
-  </si>
-  <si>
     <t>testfirm17</t>
   </si>
   <si>
@@ -965,6 +953,18 @@
   </si>
   <si>
     <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>testfirm6</t>
+  </si>
+  <si>
+    <t>testfirm7</t>
+  </si>
+  <si>
+    <t>testfirm15</t>
+  </si>
+  <si>
+    <t>testfirm16</t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BB20" sqref="BB20:BB21"/>
+      <selection activeCell="BC19" sqref="BC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
@@ -1694,7 +1694,7 @@
         <v>84</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>102</v>
@@ -1710,7 +1710,7 @@
         <v>104</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD2" s="2"/>
     </row>
@@ -1731,7 +1731,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -1860,7 +1860,7 @@
         <v>105</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -1874,7 +1874,7 @@
         <v>104</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD3" s="2"/>
     </row>
@@ -1895,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2024,7 +2024,7 @@
         <v>106</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
@@ -2038,7 +2038,7 @@
         <v>104</v>
       </c>
       <c r="BC4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD4" s="2"/>
     </row>
@@ -2059,7 +2059,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -2178,8 +2178,8 @@
       <c r="AS5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AT5" s="4" t="s">
-        <v>284</v>
+      <c r="AT5" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="AU5" s="4" t="s">
         <v>83</v>
@@ -2188,7 +2188,7 @@
         <v>107</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
@@ -2223,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
@@ -2343,7 +2343,7 @@
         <v>29</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="AU6" s="4" t="s">
         <v>83</v>
@@ -2352,7 +2352,7 @@
         <v>108</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
@@ -2387,7 +2387,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>19</v>
@@ -2507,7 +2507,7 @@
         <v>29</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AU7" s="9" t="s">
         <v>83</v>
@@ -2516,7 +2516,7 @@
         <v>109</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX7" s="9"/>
       <c r="AY7" s="9"/>
@@ -2551,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -2671,7 +2671,7 @@
         <v>29</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AU8" s="4" t="s">
         <v>83</v>
@@ -2680,7 +2680,7 @@
         <v>110</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
@@ -2715,7 +2715,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2835,7 +2835,7 @@
         <v>29</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AU9" s="4" t="s">
         <v>83</v>
@@ -2844,7 +2844,7 @@
         <v>111</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
@@ -2858,7 +2858,7 @@
         <v>104</v>
       </c>
       <c r="BC9" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD9" s="4"/>
     </row>
@@ -2879,7 +2879,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G10" t="s">
         <v>19</v>
@@ -2999,7 +2999,7 @@
         <v>29</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AU10" s="4" t="s">
         <v>83</v>
@@ -3008,7 +3008,7 @@
         <v>112</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
@@ -3022,7 +3022,7 @@
         <v>104</v>
       </c>
       <c r="BC10" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD10" s="2"/>
     </row>
@@ -3043,7 +3043,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -3163,7 +3163,7 @@
         <v>29</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AU11" s="4" t="s">
         <v>83</v>
@@ -3172,7 +3172,7 @@
         <v>113</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
@@ -3186,7 +3186,7 @@
         <v>104</v>
       </c>
       <c r="BC11" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD11" s="2"/>
     </row>
@@ -3207,7 +3207,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G12" t="s">
         <v>19</v>
@@ -3327,7 +3327,7 @@
         <v>29</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AU12" s="4" t="s">
         <v>83</v>
@@ -3336,7 +3336,7 @@
         <v>114</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
@@ -3350,7 +3350,7 @@
         <v>104</v>
       </c>
       <c r="BC12" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD12" s="2"/>
     </row>
@@ -3371,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
@@ -3491,7 +3491,7 @@
         <v>29</v>
       </c>
       <c r="AT13" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AU13" s="4" t="s">
         <v>83</v>
@@ -3500,7 +3500,7 @@
         <v>115</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
@@ -3514,7 +3514,7 @@
         <v>104</v>
       </c>
       <c r="BC13" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD13" s="2"/>
     </row>
@@ -3535,7 +3535,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -3655,7 +3655,7 @@
         <v>29</v>
       </c>
       <c r="AT14" s="4" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="AU14" s="4" t="s">
         <v>83</v>
@@ -3664,15 +3664,15 @@
         <v>116</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA14" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="BA14" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="BB14" s="4" t="s">
         <v>104</v>
@@ -3699,7 +3699,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -3819,7 +3819,7 @@
         <v>29</v>
       </c>
       <c r="AT15" s="4" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="AU15" s="4" t="s">
         <v>83</v>
@@ -3828,7 +3828,7 @@
         <v>117</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
@@ -3863,7 +3863,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -3992,7 +3992,7 @@
         <v>118</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -4027,7 +4027,7 @@
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -4147,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>83</v>
@@ -4156,7 +4156,7 @@
         <v>119</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AZ17" s="3" t="s">
         <v>10</v>
@@ -4188,7 +4188,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -4308,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="AT18" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AU18" s="4" t="s">
         <v>83</v>
@@ -4317,7 +4317,7 @@
         <v>120</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AZ18" s="3" t="s">
         <v>13</v>
@@ -4329,7 +4329,7 @@
         <v>104</v>
       </c>
       <c r="BC18" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
@@ -4349,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -4469,7 +4469,7 @@
         <v>29</v>
       </c>
       <c r="AT19" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AU19" s="4" t="s">
         <v>83</v>
@@ -4478,7 +4478,7 @@
         <v>121</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AZ19" s="3" t="s">
         <v>10</v>
@@ -4490,7 +4490,7 @@
         <v>104</v>
       </c>
       <c r="BC19" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="315">
   <si>
     <t>TCID</t>
   </si>
@@ -43,9 +43,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>test.mindcraft</t>
-  </si>
-  <si>
     <t>Default123!</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>deepali.chaudhari@invessence.com</t>
   </si>
   <si>
-    <t>http://preuat.invessence.com:8080/login.xhtml</t>
-  </si>
-  <si>
     <t>accountnumber</t>
   </si>
   <si>
@@ -439,114 +433,6 @@
     <t>TD Ameritrade Transfer</t>
   </si>
   <si>
-    <t>testfname1</t>
-  </si>
-  <si>
-    <t>testfname2</t>
-  </si>
-  <si>
-    <t>testfname3</t>
-  </si>
-  <si>
-    <t>testfname4</t>
-  </si>
-  <si>
-    <t>testfname5</t>
-  </si>
-  <si>
-    <t>testfname6</t>
-  </si>
-  <si>
-    <t>testfname7</t>
-  </si>
-  <si>
-    <t>testfname8</t>
-  </si>
-  <si>
-    <t>testfname9</t>
-  </si>
-  <si>
-    <t>testfname10</t>
-  </si>
-  <si>
-    <t>testfname11</t>
-  </si>
-  <si>
-    <t>testfname12</t>
-  </si>
-  <si>
-    <t>testfname13</t>
-  </si>
-  <si>
-    <t>testfname14</t>
-  </si>
-  <si>
-    <t>testfname15</t>
-  </si>
-  <si>
-    <t>testfname16</t>
-  </si>
-  <si>
-    <t>testfname17</t>
-  </si>
-  <si>
-    <t>testfname18</t>
-  </si>
-  <si>
-    <t>testlname1</t>
-  </si>
-  <si>
-    <t>testlname2</t>
-  </si>
-  <si>
-    <t>testlname3</t>
-  </si>
-  <si>
-    <t>testlname4</t>
-  </si>
-  <si>
-    <t>testlname5</t>
-  </si>
-  <si>
-    <t>testlname6</t>
-  </si>
-  <si>
-    <t>testlname7</t>
-  </si>
-  <si>
-    <t>testlname8</t>
-  </si>
-  <si>
-    <t>testlname9</t>
-  </si>
-  <si>
-    <t>testlname10</t>
-  </si>
-  <si>
-    <t>testlname11</t>
-  </si>
-  <si>
-    <t>testlname12</t>
-  </si>
-  <si>
-    <t>testlname13</t>
-  </si>
-  <si>
-    <t>testlname14</t>
-  </si>
-  <si>
-    <t>testlname15</t>
-  </si>
-  <si>
-    <t>testlname16</t>
-  </si>
-  <si>
-    <t>testlname17</t>
-  </si>
-  <si>
-    <t>testlname18</t>
-  </si>
-  <si>
     <t>street2</t>
   </si>
   <si>
@@ -965,6 +851,120 @@
   </si>
   <si>
     <t>testfirm16</t>
+  </si>
+  <si>
+    <t>bbqa.user</t>
+  </si>
+  <si>
+    <t>http://uatbb.invessence.com:8080//login.xhtml</t>
+  </si>
+  <si>
+    <t>BB-testfname1</t>
+  </si>
+  <si>
+    <t>BB-testlname1</t>
+  </si>
+  <si>
+    <t>BB-testfname2</t>
+  </si>
+  <si>
+    <t>BB-testfname3</t>
+  </si>
+  <si>
+    <t>BB-testfname4</t>
+  </si>
+  <si>
+    <t>BB-testfname5</t>
+  </si>
+  <si>
+    <t>BB-testfname6</t>
+  </si>
+  <si>
+    <t>BB-testfname7</t>
+  </si>
+  <si>
+    <t>BB-testfname8</t>
+  </si>
+  <si>
+    <t>BB-testfname9</t>
+  </si>
+  <si>
+    <t>BB-testfname10</t>
+  </si>
+  <si>
+    <t>BB-testfname11</t>
+  </si>
+  <si>
+    <t>BB-testfname12</t>
+  </si>
+  <si>
+    <t>BB-testfname13</t>
+  </si>
+  <si>
+    <t>BB-testfname14</t>
+  </si>
+  <si>
+    <t>BB-testfname15</t>
+  </si>
+  <si>
+    <t>BB-testfname16</t>
+  </si>
+  <si>
+    <t>BB-testfname17</t>
+  </si>
+  <si>
+    <t>BB-testfname18</t>
+  </si>
+  <si>
+    <t>BB-testlname2</t>
+  </si>
+  <si>
+    <t>BB-testlname3</t>
+  </si>
+  <si>
+    <t>BB-testlname4</t>
+  </si>
+  <si>
+    <t>BB-testlname5</t>
+  </si>
+  <si>
+    <t>BB-testlname6</t>
+  </si>
+  <si>
+    <t>BB-testlname7</t>
+  </si>
+  <si>
+    <t>BB-testlname8</t>
+  </si>
+  <si>
+    <t>BB-testlname9</t>
+  </si>
+  <si>
+    <t>BB-testlname10</t>
+  </si>
+  <si>
+    <t>BB-testlname11</t>
+  </si>
+  <si>
+    <t>BB-testlname12</t>
+  </si>
+  <si>
+    <t>BB-testlname13</t>
+  </si>
+  <si>
+    <t>BB-testlname14</t>
+  </si>
+  <si>
+    <t>BB-testlname15</t>
+  </si>
+  <si>
+    <t>BB-testlname16</t>
+  </si>
+  <si>
+    <t>BB-testlname17</t>
+  </si>
+  <si>
+    <t>BB-testlname18</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1017,9 +1017,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1348,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BC19" sqref="BC19"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BB21" sqref="BB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,157 +1392,157 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AX1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="BB1" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BC1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
@@ -1553,2963 +1550,2954 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="AW2" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD2" s="2"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="V3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM3" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV3" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD3" s="2"/>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S4" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="V4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM4" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AR4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV4" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC4" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD4" s="2"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="V5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH5" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI5" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AL5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM5" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AR5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV5" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD5" s="2"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="U6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH6" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AR6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV6" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD6" s="2"/>
     </row>
     <row r="7" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>296</v>
+      <c r="F7" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="V7" s="9" t="s">
+      <c r="S7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="X7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="Y7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Z7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="AA7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AH7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AH7" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AI7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AL7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AL7" s="9" t="s">
+      <c r="AM7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AM7" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN7" s="9" t="s">
+      <c r="AO7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AP7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AQ7" s="9" t="s">
+      <c r="AR7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT7" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AR7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT7" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AW7" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="BB7" s="9" t="s">
-        <v>104</v>
+      <c r="AV7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW7" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="BC7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD7" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="BD7" s="7"/>
     </row>
     <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="P8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="V8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AH8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH8" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI8" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AL8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AM8" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM8" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AO8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO8" s="4" t="s">
+      <c r="AP8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP8" s="4" t="s">
+      <c r="AQ8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AR8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV8" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" s="4"/>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="P9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S9" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="V9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z9" s="4" t="s">
+      <c r="AA9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG9" s="4" t="s">
+      <c r="AH9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH9" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI9" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AJ9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK9" s="4" t="s">
+      <c r="AL9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL9" s="4" t="s">
+      <c r="AM9" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM9" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="AN9" s="4" t="s">
+      <c r="AO9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO9" s="4" t="s">
+      <c r="AP9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP9" s="4" t="s">
+      <c r="AQ9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ9" s="4" t="s">
+      <c r="AR9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT9" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU9" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV9" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC9" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD9" s="4"/>
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="P10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="V10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X10" s="4" t="s">
+      <c r="Y10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Z10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z10" s="4" t="s">
+      <c r="AA10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AH10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH10" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI10" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AJ10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK10" s="4" t="s">
+      <c r="AL10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL10" s="4" t="s">
+      <c r="AM10" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM10" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN10" s="4" t="s">
+      <c r="AO10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO10" s="4" t="s">
+      <c r="AP10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP10" s="4" t="s">
+      <c r="AQ10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ10" s="4" t="s">
+      <c r="AR10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV10" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC10" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD10" s="2"/>
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="P11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="V11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Z11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="AA11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA11" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AH11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AI11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI11" s="4" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ11" s="4" t="s">
+      <c r="AK11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK11" s="4" t="s">
+      <c r="AL11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL11" s="4" t="s">
+      <c r="AM11" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM11" s="4" t="s">
+      <c r="AO11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW11" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT11" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AU11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW11" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC11" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD11" s="2"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="P12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="V12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="X12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X12" s="4" t="s">
+      <c r="Y12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Z12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z12" s="4" t="s">
+      <c r="AA12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG12" s="4" t="s">
+      <c r="AH12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI12" s="4" t="s">
+      <c r="AJ12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ12" s="4" t="s">
+      <c r="AK12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK12" s="4" t="s">
+      <c r="AL12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL12" s="4" t="s">
+      <c r="AM12" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM12" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN12" s="4" t="s">
+      <c r="AO12" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO12" s="4" t="s">
+      <c r="AP12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP12" s="4" t="s">
+      <c r="AQ12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ12" s="4" t="s">
+      <c r="AR12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT12" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU12" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC12" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD12" s="2"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="P13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="V13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="Y13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Z13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA13" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD13" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG13" s="4" t="s">
+      <c r="AH13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AJ13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AJ13" s="4" t="s">
+      <c r="AK13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK13" s="4" t="s">
+      <c r="AL13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL13" s="4" t="s">
+      <c r="AM13" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM13" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AN13" s="4" t="s">
+      <c r="AO13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO13" s="4" t="s">
+      <c r="AP13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP13" s="4" t="s">
+      <c r="AQ13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ13" s="4" t="s">
+      <c r="AR13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT13" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="AU13" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV13" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC13" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD13" s="2"/>
     </row>
     <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="P14" s="4" t="s">
+      <c r="T14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z14" s="4" t="s">
+      <c r="AG14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA14" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AH14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH14" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI14" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK14" s="4" t="s">
+      <c r="AL14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL14" s="4" t="s">
+      <c r="AM14" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM14" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN14" s="4" t="s">
+      <c r="AO14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO14" s="4" t="s">
+      <c r="AP14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP14" s="4" t="s">
+      <c r="AQ14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ14" s="4" t="s">
+      <c r="AR14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT14" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT14" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU14" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV14" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD14" s="2"/>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="P15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S15" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="V15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="X15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Z15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="AA15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AE15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG15" s="4" t="s">
+      <c r="AH15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH15" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI15" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK15" s="4" t="s">
+      <c r="AL15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL15" s="4" t="s">
+      <c r="AM15" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM15" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AO15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO15" s="4" t="s">
+      <c r="AP15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP15" s="4" t="s">
+      <c r="AQ15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ15" s="4" t="s">
+      <c r="AR15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT15" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT15" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU15" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC15" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD15" s="2"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="T16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AG16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AH16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH16" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM16" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AO16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO16" s="4" t="s">
+      <c r="AP16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP16" s="4" t="s">
+      <c r="AQ16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="AR16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT16" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AU16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AU16" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB16" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD16" s="2"/>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
       <c r="P17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="S17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="U17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC17" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z17" s="4" t="s">
+      <c r="AD17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA17" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AH17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH17" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI17" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AJ17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AL17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AM17" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AN17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM17" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AO17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO17" s="4" t="s">
+      <c r="AP17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP17" s="4" t="s">
+      <c r="AQ17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ17" s="4" t="s">
+      <c r="AR17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT17" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AU17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT17" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU17" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB17" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P18" s="4" t="s">
+      <c r="T18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z18" s="4" t="s">
+      <c r="AG18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA18" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG18" s="4" t="s">
+      <c r="AH18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH18" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI18" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AJ18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK18" s="4" t="s">
+      <c r="AL18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL18" s="4" t="s">
+      <c r="AM18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM18" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN18" s="4" t="s">
+      <c r="AO18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="4" t="s">
+      <c r="AP18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP18" s="4" t="s">
+      <c r="AQ18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ18" s="4" t="s">
+      <c r="AR18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT18" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AU18" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV18" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AZ18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC18" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="K19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="P19" s="4" t="s">
+      <c r="T19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z19" s="4" t="s">
+      <c r="AG19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA19" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG19" s="4" t="s">
+      <c r="AH19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AH19" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="AI19" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AJ19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AK19" s="4" t="s">
+      <c r="AL19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL19" s="4" t="s">
+      <c r="AM19" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AM19" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="AN19" s="4" t="s">
+      <c r="AO19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AO19" s="4" t="s">
+      <c r="AP19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AP19" s="4" t="s">
+      <c r="AQ19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AQ19" s="4" t="s">
+      <c r="AR19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT19" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AR19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT19" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU19" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="AV19" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="AZ19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BC19" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
-    <hyperlink ref="B19" r:id="rId11"/>
-    <hyperlink ref="S3:S19" r:id="rId12" display="d@gmail.com"/>
+    <hyperlink ref="S3:S19" r:id="rId2" display="d@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B5:B18" r:id="rId6" display="http://uatbb.invessence.com:8080//login.xhtml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -4528,7 +4516,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+    <sheetView tabSelected="1" topLeftCell="AS17" workbookViewId="0">
+      <selection activeCell="AY31" sqref="AY31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -838,9 +838,6 @@
     <t>OptionsXpress, Inc.</t>
   </si>
   <si>
-    <t>04/05/2017</t>
-  </si>
-  <si>
     <t>testfirm6</t>
   </si>
   <si>
@@ -1076,6 +1073,9 @@
   </si>
   <si>
     <t>BB-PREUAT-testlname17</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS17" workbookViewId="0">
-      <selection activeCell="AY31" sqref="AY31"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BC18" sqref="BC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,13 +1661,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1697,10 +1697,10 @@
         <v>28</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>62</v>
@@ -1802,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>100</v>
@@ -1827,13 +1827,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1863,10 +1863,10 @@
         <v>84</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>62</v>
@@ -1968,7 +1968,7 @@
         <v>103</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -1991,13 +1991,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -2027,10 +2027,10 @@
         <v>85</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>62</v>
@@ -2132,7 +2132,7 @@
         <v>104</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
@@ -2155,13 +2155,13 @@
         <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2191,10 +2191,10 @@
         <v>28</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>62</v>
@@ -2296,7 +2296,7 @@
         <v>105</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
@@ -2319,13 +2319,13 @@
         <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2355,10 +2355,10 @@
         <v>84</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>62</v>
@@ -2460,7 +2460,7 @@
         <v>106</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX6" s="4"/>
       <c r="AY6" s="4"/>
@@ -2483,13 +2483,13 @@
         <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>7</v>
@@ -2519,10 +2519,10 @@
         <v>28</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>62</v>
@@ -2615,7 +2615,7 @@
         <v>28</v>
       </c>
       <c r="AT7" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AU7" s="8" t="s">
         <v>82</v>
@@ -2623,8 +2623,8 @@
       <c r="AV7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AW7" s="8" t="s">
-        <v>272</v>
+      <c r="AW7" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8"/>
@@ -2638,7 +2638,7 @@
         <v>102</v>
       </c>
       <c r="BC7" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD7" s="7"/>
     </row>
@@ -2647,13 +2647,13 @@
         <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -2683,10 +2683,10 @@
         <v>28</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>62</v>
@@ -2779,7 +2779,7 @@
         <v>28</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU8" s="4" t="s">
         <v>82</v>
@@ -2788,7 +2788,7 @@
         <v>108</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX8" s="4"/>
       <c r="AY8" s="4"/>
@@ -2802,7 +2802,7 @@
         <v>102</v>
       </c>
       <c r="BC8" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD8" s="4"/>
     </row>
@@ -2811,13 +2811,13 @@
         <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -2847,10 +2847,10 @@
         <v>28</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>62</v>
@@ -2952,7 +2952,7 @@
         <v>109</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX9" s="4"/>
       <c r="AY9" s="4"/>
@@ -2975,13 +2975,13 @@
         <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3011,10 +3011,10 @@
         <v>85</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>62</v>
@@ -3116,7 +3116,7 @@
         <v>110</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX10" s="4"/>
       <c r="AY10" s="4"/>
@@ -3139,13 +3139,13 @@
         <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -3175,10 +3175,10 @@
         <v>87</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>62</v>
@@ -3280,7 +3280,7 @@
         <v>111</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
@@ -3303,13 +3303,13 @@
         <v>127</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -3339,10 +3339,10 @@
         <v>88</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>62</v>
@@ -3444,7 +3444,7 @@
         <v>112</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX12" s="4"/>
       <c r="AY12" s="4"/>
@@ -3467,13 +3467,13 @@
         <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -3503,10 +3503,10 @@
         <v>89</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>62</v>
@@ -3608,7 +3608,7 @@
         <v>113</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX13" s="4"/>
       <c r="AY13" s="4"/>
@@ -3631,13 +3631,13 @@
         <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -3667,10 +3667,10 @@
         <v>90</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>62</v>
@@ -3772,7 +3772,7 @@
         <v>114</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX14" s="4"/>
       <c r="AY14" s="4"/>
@@ -3795,13 +3795,13 @@
         <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -3831,10 +3831,10 @@
         <v>89</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>62</v>
@@ -3936,7 +3936,7 @@
         <v>115</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX15" s="4"/>
       <c r="AY15" s="4"/>
@@ -3959,13 +3959,13 @@
         <v>131</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -3995,10 +3995,10 @@
         <v>90</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>62</v>
@@ -4091,7 +4091,7 @@
         <v>28</v>
       </c>
       <c r="AT16" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AU16" s="4" t="s">
         <v>82</v>
@@ -4100,7 +4100,7 @@
         <v>116</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX16" s="4"/>
       <c r="AY16" s="4"/>
@@ -4114,7 +4114,7 @@
         <v>102</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD16" s="2"/>
     </row>
@@ -4123,13 +4123,13 @@
         <v>132</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -4159,10 +4159,10 @@
         <v>89</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>62</v>
@@ -4255,7 +4255,7 @@
         <v>28</v>
       </c>
       <c r="AT17" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>82</v>
@@ -4264,7 +4264,7 @@
         <v>117</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AZ17" s="3" t="s">
         <v>9</v>
@@ -4276,7 +4276,7 @@
         <v>102</v>
       </c>
       <c r="BC17" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
@@ -4284,13 +4284,13 @@
         <v>133</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -4320,10 +4320,10 @@
         <v>90</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>62</v>
@@ -4425,7 +4425,7 @@
         <v>118</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AZ18" s="3" t="s">
         <v>12</v>
@@ -4445,13 +4445,13 @@
         <v>134</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -4481,10 +4481,10 @@
         <v>90</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>62</v>
@@ -4586,7 +4586,7 @@
         <v>119</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AZ19" s="3" t="s">
         <v>9</v>
@@ -4606,13 +4606,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -4642,10 +4642,10 @@
         <v>28</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>62</v>
@@ -4747,7 +4747,7 @@
         <v>83</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX20" s="4" t="s">
         <v>100</v>
@@ -4763,7 +4763,7 @@
         <v>102</v>
       </c>
       <c r="BC20" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD20" s="2"/>
     </row>
@@ -4772,13 +4772,13 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -4808,10 +4808,10 @@
         <v>84</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>62</v>
@@ -4913,7 +4913,7 @@
         <v>103</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
@@ -4927,7 +4927,7 @@
         <v>102</v>
       </c>
       <c r="BC21" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD21" s="2"/>
     </row>
@@ -4936,13 +4936,13 @@
         <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -4972,10 +4972,10 @@
         <v>85</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>62</v>
@@ -5077,7 +5077,7 @@
         <v>104</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX22" s="4"/>
       <c r="AY22" s="4"/>
@@ -5091,7 +5091,7 @@
         <v>102</v>
       </c>
       <c r="BC22" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD22" s="2"/>
     </row>
@@ -5100,13 +5100,13 @@
         <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -5136,10 +5136,10 @@
         <v>28</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>62</v>
@@ -5241,7 +5241,7 @@
         <v>105</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX23" s="4"/>
       <c r="AY23" s="4"/>
@@ -5255,7 +5255,7 @@
         <v>102</v>
       </c>
       <c r="BC23" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD23" s="2"/>
     </row>
@@ -5264,13 +5264,13 @@
         <v>121</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -5300,10 +5300,10 @@
         <v>84</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>62</v>
@@ -5405,7 +5405,7 @@
         <v>106</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX24" s="4"/>
       <c r="AY24" s="4"/>
@@ -5419,7 +5419,7 @@
         <v>102</v>
       </c>
       <c r="BC24" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD24" s="2"/>
     </row>
@@ -5428,13 +5428,13 @@
         <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>7</v>
@@ -5464,10 +5464,10 @@
         <v>28</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>62</v>
@@ -5560,7 +5560,7 @@
         <v>28</v>
       </c>
       <c r="AT25" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AU25" s="8" t="s">
         <v>82</v>
@@ -5568,8 +5568,8 @@
       <c r="AV25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AW25" s="8" t="s">
-        <v>272</v>
+      <c r="AW25" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="AX25" s="8"/>
       <c r="AY25" s="8"/>
@@ -5583,7 +5583,7 @@
         <v>102</v>
       </c>
       <c r="BC25" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD25" s="7"/>
     </row>
@@ -5592,13 +5592,13 @@
         <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -5628,10 +5628,10 @@
         <v>28</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>62</v>
@@ -5724,7 +5724,7 @@
         <v>28</v>
       </c>
       <c r="AT26" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU26" s="4" t="s">
         <v>82</v>
@@ -5733,7 +5733,7 @@
         <v>108</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
@@ -5747,7 +5747,7 @@
         <v>102</v>
       </c>
       <c r="BC26" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD26" s="4"/>
     </row>
@@ -5756,13 +5756,13 @@
         <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -5792,10 +5792,10 @@
         <v>28</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>62</v>
@@ -5897,7 +5897,7 @@
         <v>109</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX27" s="4"/>
       <c r="AY27" s="4"/>
@@ -5911,7 +5911,7 @@
         <v>102</v>
       </c>
       <c r="BC27" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD27" s="4"/>
     </row>
@@ -5920,13 +5920,13 @@
         <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -5956,10 +5956,10 @@
         <v>85</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>62</v>
@@ -6061,7 +6061,7 @@
         <v>110</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX28" s="4"/>
       <c r="AY28" s="4"/>
@@ -6075,7 +6075,7 @@
         <v>102</v>
       </c>
       <c r="BC28" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD28" s="2"/>
     </row>
@@ -6084,13 +6084,13 @@
         <v>126</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -6120,10 +6120,10 @@
         <v>87</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>62</v>
@@ -6225,7 +6225,7 @@
         <v>111</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
@@ -6239,7 +6239,7 @@
         <v>102</v>
       </c>
       <c r="BC29" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD29" s="2"/>
     </row>
@@ -6248,13 +6248,13 @@
         <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -6284,10 +6284,10 @@
         <v>88</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>62</v>
@@ -6389,7 +6389,7 @@
         <v>112</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
@@ -6403,7 +6403,7 @@
         <v>102</v>
       </c>
       <c r="BC30" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD30" s="2"/>
     </row>
@@ -6412,13 +6412,13 @@
         <v>128</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -6448,10 +6448,10 @@
         <v>89</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>62</v>
@@ -6553,7 +6553,7 @@
         <v>113</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
@@ -6567,7 +6567,7 @@
         <v>102</v>
       </c>
       <c r="BC31" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD31" s="2"/>
     </row>
@@ -6576,13 +6576,13 @@
         <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -6612,10 +6612,10 @@
         <v>90</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>62</v>
@@ -6717,7 +6717,7 @@
         <v>114</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
@@ -6731,7 +6731,7 @@
         <v>102</v>
       </c>
       <c r="BC32" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD32" s="2"/>
     </row>
@@ -6740,13 +6740,13 @@
         <v>130</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -6776,10 +6776,10 @@
         <v>89</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>62</v>
@@ -6881,7 +6881,7 @@
         <v>115</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
@@ -6895,7 +6895,7 @@
         <v>102</v>
       </c>
       <c r="BC33" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD33" s="2"/>
     </row>
@@ -6904,13 +6904,13 @@
         <v>131</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -6940,10 +6940,10 @@
         <v>90</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>62</v>
@@ -7036,7 +7036,7 @@
         <v>28</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AU34" s="4" t="s">
         <v>82</v>
@@ -7045,7 +7045,7 @@
         <v>116</v>
       </c>
       <c r="AW34" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
@@ -7059,7 +7059,7 @@
         <v>102</v>
       </c>
       <c r="BC34" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD34" s="2"/>
     </row>
@@ -7068,13 +7068,13 @@
         <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -7104,10 +7104,10 @@
         <v>89</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>62</v>
@@ -7200,7 +7200,7 @@
         <v>28</v>
       </c>
       <c r="AT35" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AU35" s="4" t="s">
         <v>82</v>
@@ -7209,7 +7209,7 @@
         <v>117</v>
       </c>
       <c r="AW35" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AZ35" s="3" t="s">
         <v>9</v>
@@ -7221,7 +7221,7 @@
         <v>102</v>
       </c>
       <c r="BC35" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:56" x14ac:dyDescent="0.25">
@@ -7229,13 +7229,13 @@
         <v>133</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -7265,10 +7265,10 @@
         <v>90</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>62</v>
@@ -7370,7 +7370,7 @@
         <v>118</v>
       </c>
       <c r="AW36" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AZ36" s="3" t="s">
         <v>12</v>
@@ -7382,7 +7382,7 @@
         <v>102</v>
       </c>
       <c r="BC36" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:56" x14ac:dyDescent="0.25">
@@ -7390,13 +7390,13 @@
         <v>134</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -7426,10 +7426,10 @@
         <v>90</v>
       </c>
       <c r="N37" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>62</v>
@@ -7531,7 +7531,7 @@
         <v>119</v>
       </c>
       <c r="AW37" s="4" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="AZ37" s="3" t="s">
         <v>9</v>
@@ -7543,7 +7543,7 @@
         <v>102</v>
       </c>
       <c r="BC37" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
+++ b/QA_Automation/Invessence/TestCases/BB/TestData_Invessence_BB_OpenNewAccount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="353">
   <si>
     <t>TCID</t>
   </si>
@@ -1076,6 +1076,9 @@
   </si>
   <si>
     <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BC18" sqref="BC18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AX2" s="4" t="s">
         <v>100</v>
@@ -1818,7 +1821,7 @@
         <v>102</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD2" s="2"/>
     </row>
@@ -1968,7 +1971,7 @@
         <v>103</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -1982,7 +1985,7 @@
         <v>102</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD3" s="2"/>
     </row>
@@ -2638,7 +2641,7 @@
         <v>102</v>
       </c>
       <c r="BC7" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD7" s="7"/>
     </row>
@@ -2802,7 +2805,7 @@
         <v>102</v>
       </c>
       <c r="BC8" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD8" s="4"/>
     </row>
@@ -3280,7 +3283,7 @@
         <v>111</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AX11" s="4"/>
       <c r="AY11" s="4"/>
@@ -3294,7 +3297,7 @@
         <v>102</v>
       </c>
       <c r="BC11" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD11" s="2"/>
     </row>
@@ -4114,7 +4117,7 @@
         <v>102</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD16" s="2"/>
     </row>
@@ -4276,7 +4279,7 @@
         <v>102</v>
       </c>
       <c r="BC17" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.25">
